--- a/biology/Zoologie/Charaxes_bernardus/Charaxes_bernardus.xlsx
+++ b/biology/Zoologie/Charaxes_bernardus/Charaxes_bernardus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases bernardus ou Raja est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,12 +523,49 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes bernardus a été nommé par Johan Christian Fabricius en 1793 sous le nom de Papilio bernardus.
-Synonymes : Charaxes polyxena ; Rothschild &amp; Jordan, 1900[1],
-Sous-espèces
-Charaxes bernardus bernardus présent en Chine et à Hong Kong.
+Synonymes : Charaxes polyxena ; Rothschild &amp; Jordan, 1900,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes bernardus bernardus présent en Chine et à Hong Kong.
 Charaxes bernardus acolus Fruhstorfer; dans l'est de Sumatra.
 Charaxes bernardus agna Moore, 1878; en Thaïlande et en Birmanie.
 Charaxes bernardus ajax Fawcett, 1897; dans l'ouest de Sumatra.
@@ -529,51 +578,17 @@
 Charaxes bernardus enganicus Fruhstorfer, 1904;
 Charaxes bernardus hainanus Gu, 1994; au Hainan.
 Charaxes bernardus hemana Butler, 1870; au Népal.
-Charaxes bernardus hierax C. &amp; R. Felder, [1867] en Assam et dans le sud du Yunnan.
+Charaxes bernardus hierax C. &amp; R. Felder,  en Assam et dans le sud du Yunnan.
 Charaxes bernardus hindia Butler, 1872;
-Charaxes bernardus kangeanensis Hanafusa, 1990[2];
+Charaxes bernardus kangeanensis Hanafusa, 1990;
 Charaxes bernardus mahawedi Fruhstorfer; dans le nord de a péninsule indochinoise.
-Charaxes bernardus mirabilis Hanafusa, 1989[2].
+Charaxes bernardus mirabilis Hanafusa, 1989.
 Charaxes bernardus mitschkei Lathy, 1913; à Nias.
 Charaxes bernardus phlegontis Fruhstorfer
 Charaxes bernardus repetitus Butler, 1896; à Bornéo.
-Charaxes bernardus siporanus Hanafusa, 1992[3]
-Charaxes bernardus siporaensis (Hanafusa, 1992)[3].
-Charaxes bernardus varenius Fruhstorfer[1].
-Noms vernaculaires
-Charaxes bernardus se nomme Tawny Rajah en anglais[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charaxes_bernardus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_bernardus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Raja est présent en Asie du Sud-Est, depuis le Népal et l'est de l'Inde, la péninsule indochinoise, en Thaïlande et en Birmanie, Singapour, les Philippines et la Malaisie[1]. Il vit dans les forêts.
-</t>
+Charaxes bernardus siporanus Hanafusa, 1992
+Charaxes bernardus siporaensis (Hanafusa, 1992).
+Charaxes bernardus varenius Fruhstorfer.</t>
         </is>
       </c>
     </row>
@@ -598,19 +613,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-Charaxes  bernardus est un grand papillon de 9 à 12 cm d'envergure en moyenne[4], au dessus jaune d'or, avec des ailes antérieures concaves, avec une bande marginale et l'apex marron et, aux ailes postérieures, une ligne submarginale de chevrons marron séparés.
-Le revers est ocre à reflets argent avec des veines foncées bien visibles.
-Chenille
-La chenille du Raja est de couleur vert foncé ponctuée de rouge, avec quatre cornes[5]. 
-Plantes hôtes
-La chenille se développe souvent sur des arbres et arbustes tropicaux comme des Adenanthera pavonina et des albizias.
-Les autres plantes hôtes de la chenille Raja sont Acromychia pedunculata, Albizia falcata, Cinnamomum camphora, Cinnamomum inunctum, Phoebe chekiangensis, Saccopetalum tomentosum, Tamarindus indica[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes bernardus se nomme Tawny Rajah en anglais.
 </t>
         </is>
       </c>
@@ -636,12 +650,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été reconnu comme migrateur en Inde[6]
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Raja est présent en Asie du Sud-Est, depuis le Népal et l'est de l'Inde, la péninsule indochinoise, en Thaïlande et en Birmanie, Singapour, les Philippines et la Malaisie. Il vit dans les forêts.
 </t>
         </is>
       </c>
@@ -667,13 +683,164 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes  bernardus est un grand papillon de 9 à 12 cm d'envergure en moyenne, au dessus jaune d'or, avec des ailes antérieures concaves, avec une bande marginale et l'apex marron et, aux ailes postérieures, une ligne submarginale de chevrons marron séparés.
+Le revers est ocre à reflets argent avec des veines foncées bien visibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille du Raja est de couleur vert foncé ponctuée de rouge, avec quatre cornes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se développe souvent sur des arbres et arbustes tropicaux comme des Adenanthera pavonina et des albizias.
+Les autres plantes hôtes de la chenille Raja sont Acromychia pedunculata, Albizia falcata, Cinnamomum camphora, Cinnamomum inunctum, Phoebe chekiangensis, Saccopetalum tomentosum, Tamarindus indica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été reconnu comme migrateur en Inde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_bernardus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Pas de protection : des spécimens sont vendus sur internet.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : des spécimens sont vendus sur internet.
 Sur les autres projets Wikimedia :
 Charaxes bernardus, sur Wikimedia CommonsCharaxes bernardus, sur Wikispecies
 </t>
